--- a/src/assets/samples/Import Configure Device Template.xlsx
+++ b/src/assets/samples/Import Configure Device Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Free\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2247CB-10BB-460B-B0D4-17F5BF299D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEEF45-843A-4906-B770-221D10813BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF414141"/>
+      <name val="Public-sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -369,7 +375,7 @@
     <col min="15" max="15" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,6 +383,10 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
